--- a/public/import/weekly_template (6).xlsx
+++ b/public/import/weekly_template (6).xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\new-lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neng-data\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -39,39 +39,148 @@
     <t>NON</t>
   </si>
   <si>
-    <t>Audit mutasi bank harian.</t>
-  </si>
-  <si>
-    <t>Audit mutasi bank Mei MSI.</t>
-  </si>
-  <si>
-    <t>Audit mutasi bank Mei Toko Mas An An.</t>
-  </si>
-  <si>
-    <t>Audit Kas Besar Cirebon.</t>
-  </si>
-  <si>
-    <t>Audit Pembukuan Mei-Juni Kas Ciledug.</t>
-  </si>
-  <si>
-    <t>Audit laporan keuangan</t>
-  </si>
-  <si>
-    <t>Pengiriman rencana kerja &amp; realisasi todolist tepat waktu.</t>
-  </si>
-  <si>
-    <t>Outbond call program Top Selular.</t>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Update Dashboard Retail &amp; Grosir Dolphin Daily</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Update Dashboard Oraimo Daily</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rekap selltrue oraimo daily</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pengajuan Insentif Retail dan grosir dolphin periode jun – jul 2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kirim AMPM tepat waktu</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,11 +203,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,13 +516,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -430,13 +545,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -444,13 +559,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -458,13 +573,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
@@ -472,77 +587,36 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>2022</v>
       </c>
       <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>